--- a/xxxxx005_RPC/360_RPC_HeaderFormat.xlsx
+++ b/xxxxx005_RPC/360_RPC_HeaderFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\xxxxx005_RPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD56377-9DD5-4D6B-97F4-37C2E629A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18091B7C-37B6-424D-8A84-1B388B69371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33735" yWindow="1185" windowWidth="16470" windowHeight="15345" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>+0</t>
     <phoneticPr fontId="1"/>
@@ -94,127 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xid / トランザクション識別子</t>
-    <rPh sb="14" eb="17">
-      <t>シキベツシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>prog / プログラム番号</t>
-    <rPh sb="12" eb="14">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vers / プログラム・バージョン番号</t>
-    <rPh sb="18" eb="20">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>proc / プロシージャ番号</t>
-    <rPh sb="13" eb="15">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reply_stat / 応答ステータス</t>
-    <rPh sb="13" eb="15">
-      <t>オウトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accept_stat / 受け入れステータス</t>
-    <rPh sb="14" eb="15">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>verf.flavor / アカウント認証の方式</t>
-    <rPh sb="19" eb="21">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>verf.body / 認証の結果</t>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cred.flavor / 認証の方法</t>
-    <rPh sb="14" eb="16">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cred.body / 認証の証明書</t>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ショウメイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>verf.body / アカウント情報</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>length / メッセージ長</t>
-    <rPh sb="14" eb="15">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rpcvers / RPC プロトコルのバージョン（=2）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>msg_type / メッセージの種別（=0）</t>
-    <rPh sb="17" eb="19">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>msg_type / メッセージの種別（=1）</t>
-    <rPh sb="17" eb="19">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,11 +102,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;- length / メッセージ長 --&gt;</t>
+    <t>xid</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;------- length / メッセージ長 ---------&gt;</t>
+    <t>rpcvers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prog</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cred.flavor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cred.body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verf.flavor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verf.body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frag_header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LAST_FRAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reply_stat </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accept_stat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;----------------- len  -----------------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;---------- len  ----------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"RPC message" by Yamaoka is licensed under CC BY 2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +202,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -329,7 +303,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -341,32 +315,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -384,7 +336,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -399,7 +351,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -411,10 +363,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -426,85 +378,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -704,13 +581,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,58 +793,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -783,47 +892,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2119,8 +2228,8 @@
   </sheetPr>
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2139,13 +2248,13 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="C3" s="5"/>
-      <c r="AH3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="AH3" s="5"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="C4" s="5"/>
-      <c r="R4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="AH4" s="5"/>
     </row>
     <row r="5" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
@@ -2182,492 +2291,492 @@
       <c r="AG5" s="10"/>
       <c r="AH5" s="11"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="17"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="21" t="s">
-        <v>33</v>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="22"/>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="22"/>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="22"/>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="18"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="22"/>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="18"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="22"/>
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="26"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="22"/>
+      <c r="C13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="18"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
-      <c r="AG14" s="29"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="22"/>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="18"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="22"/>
+      <c r="C15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="18"/>
     </row>
     <row r="16" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="22"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="18"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="23"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="19"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="33"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2699,7 +2808,12 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="24"/>
+      <c r="AI18" s="20"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
+      <c r="AH19" s="50" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
@@ -2707,20 +2821,20 @@
       </c>
       <c r="AI20" s="3"/>
       <c r="AM20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.4">
       <c r="AI21" s="3"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="C22" s="5"/>
-      <c r="AH22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="AH22" s="5"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="C23" s="5"/>
-      <c r="R23" s="6"/>
-      <c r="AH23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="R23" s="5"/>
+      <c r="AH23" s="5"/>
     </row>
     <row r="24" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
@@ -2757,332 +2871,332 @@
       <c r="AG24" s="10"/>
       <c r="AH24" s="11"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:39" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="21" t="s">
-        <v>32</v>
+      <c r="C26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="22"/>
+      <c r="C27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="35"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="22"/>
+      <c r="C28" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="35"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="22"/>
+      <c r="C29" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="35"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="22"/>
+      <c r="C30" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="35"/>
     </row>
     <row r="31" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="22"/>
+      <c r="C31" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="35"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="23"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="36"/>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="C33" s="33"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -3114,9 +3228,12 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="24"/>
+      <c r="AI33" s="37"/>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AH34" s="50" t="s">
+        <v>32</v>
+      </c>
       <c r="AI34" s="3"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.4">
@@ -3151,13 +3268,13 @@
     <mergeCell ref="C17:J17"/>
     <mergeCell ref="K17:R17"/>
     <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:AH17"/>
+    <mergeCell ref="C18:J18"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:Z5"/>
     <mergeCell ref="AA5:AH5"/>
     <mergeCell ref="D6:AH6"/>
-    <mergeCell ref="AA17:AH17"/>
-    <mergeCell ref="C18:J18"/>
     <mergeCell ref="K18:R18"/>
     <mergeCell ref="S18:Z18"/>
     <mergeCell ref="AA18:AH18"/>
